--- a/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/42/stop-words-masking-0.5/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="91">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,25 +46,31 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>missing</t>
   </si>
   <si>
     <t>smaller</t>
@@ -73,100 +79,94 @@
     <t>small</t>
   </si>
   <si>
+    <t>guess</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>apart</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>bit</t>
+    <t>back</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
+    <t>would</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>though</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>used</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>use</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
+    <t>made</t>
   </si>
   <si>
     <t>even</t>
@@ -175,33 +175,33 @@
     <t>little</t>
   </si>
   <si>
-    <t>made</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>one</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>get</t>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -211,24 +211,24 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
@@ -241,40 +241,43 @@
     <t>happy</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>every</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
     <t>enjoyed</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
     <t>cute</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>daughter</t>
   </si>
   <si>
     <t>playing</t>
   </si>
   <si>
     <t>play</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
   <si>
     <t>good</t>
@@ -652,7 +655,7 @@
         <v>59</v>
       </c>
       <c r="J1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -710,13 +713,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -728,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -760,13 +763,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -778,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>61</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.875</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -802,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -810,13 +813,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8169014084507042</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C5">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -828,19 +831,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K5">
-        <v>0.8064516129032258</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -852,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -860,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.75</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -884,13 +887,13 @@
         <v>63</v>
       </c>
       <c r="K6">
-        <v>0.796875</v>
+        <v>0.78125</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -902,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -910,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7454545454545455</v>
+        <v>0.734375</v>
       </c>
       <c r="C7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -928,19 +931,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K7">
-        <v>0.6981132075471698</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -952,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -960,13 +963,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7150537634408602</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -978,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K8">
-        <v>0.6212338593974175</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L8">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="M8">
-        <v>433</v>
+        <v>46</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1002,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>264</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1010,13 +1013,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7083333333333334</v>
+        <v>0.7184466019417476</v>
       </c>
       <c r="C9">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="D9">
-        <v>34</v>
+        <v>148</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1028,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K9">
-        <v>0.5850622406639004</v>
+        <v>0.6269727403156384</v>
       </c>
       <c r="L9">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="M9">
-        <v>282</v>
+        <v>437</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1052,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>200</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1060,13 +1063,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6959459459459459</v>
+        <v>0.7094594594594594</v>
       </c>
       <c r="C10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D10">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1078,19 +1081,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K10">
-        <v>0.5652173913043478</v>
+        <v>0.6182572614107884</v>
       </c>
       <c r="L10">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="M10">
-        <v>39</v>
+        <v>298</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1102,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1110,13 +1113,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6601941747572816</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1128,19 +1131,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K11">
-        <v>0.5491803278688525</v>
+        <v>0.5270491803278688</v>
       </c>
       <c r="L11">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="M11">
-        <v>670</v>
+        <v>643</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1152,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>550</v>
+        <v>577</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1160,13 +1163,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="C12">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="D12">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1178,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K12">
-        <v>0.4342507645259939</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="L12">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="M12">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1202,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>185</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1210,13 +1213,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5391304347826087</v>
+        <v>0.6444444444444445</v>
       </c>
       <c r="C13">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="D13">
-        <v>186</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1228,31 +1231,31 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>159</v>
+        <v>16</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K13">
-        <v>0.4338624338624338</v>
+        <v>0.4294478527607362</v>
       </c>
       <c r="L13">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="M13">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>107</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1260,13 +1263,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5301204819277109</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C14">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1278,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K14">
-        <v>0.4216867469879518</v>
+        <v>0.3915662650602409</v>
       </c>
       <c r="L14">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="M14">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1302,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1310,13 +1313,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5118110236220472</v>
+        <v>0.5391304347826087</v>
       </c>
       <c r="C15">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="D15">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1328,19 +1331,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K15">
-        <v>0.4166666666666667</v>
+        <v>0.3583333333333333</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1352,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1360,13 +1363,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4842105263157895</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D16">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1378,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K16">
-        <v>0.3515625</v>
+        <v>0.3125</v>
       </c>
       <c r="L16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1402,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1410,13 +1413,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4609375</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1428,19 +1431,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K17">
-        <v>0.3426573426573427</v>
+        <v>0.2657342657342657</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1452,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1460,13 +1463,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4603174603174603</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1478,31 +1481,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K18">
-        <v>0.304</v>
+        <v>0.2648648648648649</v>
       </c>
       <c r="L18">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>87</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1510,13 +1513,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4597156398104265</v>
+        <v>0.4881889763779528</v>
       </c>
       <c r="C19">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="D19">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1528,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K19">
-        <v>0.2834008097165992</v>
+        <v>0.248995983935743</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="M19">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="N19">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1560,13 +1563,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.453125</v>
+        <v>0.4881516587677725</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1578,31 +1581,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K20">
-        <v>0.2554347826086957</v>
+        <v>0.248</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>137</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1610,13 +1613,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.449438202247191</v>
+        <v>0.4526315789473684</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1628,19 +1631,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K21">
-        <v>0.242530755711775</v>
+        <v>0.234622144112478</v>
       </c>
       <c r="L21">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="M21">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="N21">
         <v>0.99</v>
@@ -1652,7 +1655,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>862</v>
+        <v>871</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1660,13 +1663,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4477611940298508</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1678,31 +1681,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K22">
-        <v>0.24</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1710,13 +1713,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3366336633663367</v>
+        <v>0.3712871287128713</v>
       </c>
       <c r="C23">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D23">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1728,31 +1731,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K23">
-        <v>0.1650294695481336</v>
+        <v>0.1866295264623956</v>
       </c>
       <c r="L23">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="M23">
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1760,37 +1763,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3264248704663212</v>
+        <v>0.3163265306122449</v>
       </c>
       <c r="C24">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K24">
-        <v>0.1564245810055866</v>
+        <v>0.1528952504879636</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="M24">
-        <v>57</v>
+        <v>239</v>
       </c>
       <c r="N24">
         <v>0.98</v>
@@ -1802,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>302</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1810,13 +1813,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3163265306122449</v>
+        <v>0.3162393162393162</v>
       </c>
       <c r="C25">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1828,31 +1831,31 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K25">
-        <v>0.1559139784946237</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="N25">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="O25">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1860,37 +1863,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2898089171974522</v>
+        <v>0.3092783505154639</v>
       </c>
       <c r="C26">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E26">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>223</v>
+        <v>134</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K26">
-        <v>0.125</v>
+        <v>0.12109375</v>
       </c>
       <c r="L26">
+        <v>31</v>
+      </c>
+      <c r="M26">
         <v>32</v>
-      </c>
-      <c r="M26">
-        <v>33</v>
       </c>
       <c r="N26">
         <v>0.97</v>
@@ -1902,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1910,13 +1913,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2826086956521739</v>
+        <v>0.3</v>
       </c>
       <c r="C27">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D27">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1928,19 +1931,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K27">
-        <v>0.1076388888888889</v>
+        <v>0.11</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M27">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N27">
         <v>0.9399999999999999</v>
@@ -1952,7 +1955,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1960,13 +1963,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2563291139240506</v>
+        <v>0.285</v>
       </c>
       <c r="C28">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="D28">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1978,19 +1981,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K28">
-        <v>0.1052631578947368</v>
+        <v>0.108359133126935</v>
       </c>
       <c r="L28">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M28">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N28">
         <v>0.97</v>
@@ -2002,7 +2005,7 @@
         <v>1</v>
       </c>
       <c r="Q28">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2010,13 +2013,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2478632478632479</v>
+        <v>0.2753623188405797</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2028,31 +2031,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K29">
-        <v>0.09395973154362416</v>
+        <v>0.101078167115903</v>
       </c>
       <c r="L29">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M29">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="N29">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O29">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2060,49 +2063,49 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2471264367816092</v>
+        <v>0.2523961661341853</v>
       </c>
       <c r="C30">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="E30">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="F30">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K30">
-        <v>0.06657018813314038</v>
+        <v>0.06882591093117409</v>
       </c>
       <c r="L30">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="N30">
-        <v>0.77</v>
+        <v>0.85</v>
       </c>
       <c r="O30">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>645</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2110,13 +2113,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.244047619047619</v>
+        <v>0.2470238095238095</v>
       </c>
       <c r="C31">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D31">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E31">
         <v>0.01</v>
@@ -2128,31 +2131,31 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K31">
-        <v>0.05755395683453238</v>
+        <v>0.05780346820809248</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="N31">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="O31">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>524</v>
+        <v>652</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2160,13 +2163,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2383177570093458</v>
+        <v>0.2246835443037975</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="D32">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2178,7 +2181,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>163</v>
+        <v>245</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32">
+        <v>0.05215827338129497</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>38</v>
+      </c>
+      <c r="N32">
+        <v>0.76</v>
+      </c>
+      <c r="O32">
+        <v>0.24</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>527</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2186,25 +2213,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2362204724409449</v>
+        <v>0.2206572769953052</v>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D33">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E33">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>97</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2212,25 +2239,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.235632183908046</v>
+        <v>0.2157894736842105</v>
       </c>
       <c r="C34">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D34">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
-        <v>266</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2238,25 +2265,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2285714285714286</v>
+        <v>0.2138728323699422</v>
       </c>
       <c r="C35">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="D35">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>108</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2264,13 +2291,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.225130890052356</v>
+        <v>0.2101910828025478</v>
       </c>
       <c r="C36">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D36">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2282,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2290,13 +2317,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2168141592920354</v>
+        <v>0.2101769911504425</v>
       </c>
       <c r="C37">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E37">
         <v>0.02</v>
@@ -2308,7 +2335,7 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2316,25 +2343,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.205</v>
+        <v>0.1917293233082707</v>
       </c>
       <c r="C38">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D38">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>159</v>
+        <v>215</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2342,25 +2369,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2038216560509554</v>
+        <v>0.1896551724137931</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>125</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2368,25 +2395,25 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1924528301886793</v>
+        <v>0.1708333333333333</v>
       </c>
       <c r="C40">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="D40">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E40">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="F40">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>214</v>
+        <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2394,13 +2421,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.185792349726776</v>
+        <v>0.1693989071038251</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2412,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2420,25 +2447,25 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1832460732984293</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D42">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="E42">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="F42">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>156</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2446,25 +2473,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1522633744855967</v>
+        <v>0.1559139784946237</v>
       </c>
       <c r="C43">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E43">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="F43">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>206</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2472,22 +2499,22 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1359773371104816</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="C44">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>50</v>
       </c>
       <c r="E44">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>305</v>
@@ -2498,25 +2525,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1322314049586777</v>
+        <v>0.1369426751592357</v>
       </c>
       <c r="C45">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E45">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F45">
-        <v>0.96</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>315</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2524,19 +2551,19 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1290322580645161</v>
+        <v>0.1258992805755396</v>
       </c>
       <c r="C46">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46">
         <v>37</v>
       </c>
       <c r="E46">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="F46">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -2550,25 +2577,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1196388261851016</v>
+        <v>0.1238738738738739</v>
       </c>
       <c r="C47">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D47">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E47">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F47">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2576,25 +2603,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1182108626198083</v>
+        <v>0.1190082644628099</v>
       </c>
       <c r="C48">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D48">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="E48">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="F48">
-        <v>0.9</v>
+        <v>0.96</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>276</v>
+        <v>533</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2602,25 +2629,25 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1064891846921797</v>
+        <v>0.1001540832049307</v>
       </c>
       <c r="C49">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D49">
         <v>71</v>
       </c>
       <c r="E49">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F49">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>537</v>
+        <v>584</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2628,25 +2655,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.09937888198757763</v>
+        <v>0.09592326139088729</v>
       </c>
       <c r="C50">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E50">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="F50">
-        <v>0.85</v>
+        <v>0.77</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>580</v>
+        <v>377</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2654,25 +2681,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.09806451612903226</v>
+        <v>0.08961038961038961</v>
       </c>
       <c r="C51">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D51">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E51">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="F51">
-        <v>0.8</v>
+        <v>0.74</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2680,25 +2707,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.0947867298578199</v>
+        <v>0.0880952380952381</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E52">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="F52">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2706,25 +2733,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08254716981132075</v>
+        <v>0.06275303643724696</v>
       </c>
       <c r="C53">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D53">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E53">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="F53">
-        <v>0.88</v>
+        <v>0.76</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>389</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
